--- a/linguistic_analysis/word_labels.xlsx
+++ b/linguistic_analysis/word_labels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18080" yWindow="0" windowWidth="25520" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14860" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="adjectives" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="195">
   <si>
     <t>last</t>
   </si>
@@ -653,17 +653,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -995,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1006,7 +1030,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1486,7 +1510,7 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -1882,7 +1906,7 @@
         <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -1959,7 +1983,7 @@
         <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2521,13 +2545,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -2535,62 +2559,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>189</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>179</v>
       </c>
       <c r="B5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -2598,29 +2607,23 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>189</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -2636,18 +2639,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -2655,36 +2655,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2717,9 +2708,6 @@
         <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2728,9 +2716,6 @@
         <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2739,10 +2724,7 @@
         <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2750,9 +2732,6 @@
         <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2761,9 +2740,6 @@
         <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2788,7 +2764,7 @@
         <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
         <v>194</v>
@@ -2807,7 +2783,7 @@
         <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2815,7 +2791,7 @@
         <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2834,40 +2810,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -2875,18 +2842,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -2894,7 +2858,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -2902,14 +2866,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>180</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" t="s">
         <v>27</v>
       </c>
     </row>
